--- a/Source/Pivot Excel/Cau14_3600_4500.xlsx
+++ b/Source/Pivot Excel/Cau14_3600_4500.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIET's Folder\CODE\UIT\Third_year\Semester 2\IS217_Data_warehouse_and_OLAP\SASS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive - IT software\Máy tính\UIT\nam_BA\HK2\IS217-KhoDLvaOLAP\PROJECT\Project-OLAP\IS217---Datawarehouse-and-OLAP\Source\Pivot Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6B3449-DCBD-48E2-9C13-BAED20CCA5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3559201D-D0E6-44EB-9768-0562607D3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BDB88B9-4726-4FA3-908B-43DC184D0E0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7BDB88B9-4726-4FA3-908B-43DC184D0E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp6B9" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="2" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E963BB3-782D-481F-B409-808FFBC79026}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="1stTeam" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E963BB3-782D-481F-B409-808FFBC79026}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="1stTeam" fieldListSortAscending="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
